--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R201_SAV_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R201_SAV_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1724" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5172" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,33 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="7">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +153,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +183,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="6" customFormat="true">
+      <c r="A1" t="s" s="6">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="6">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="6">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="6">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="6">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="6">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="6">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +230,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +276,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -361,10 +385,10 @@
       <c r="I8">
         <f>((C8-C7)^2+(D8- D7)^2)^.5</f>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="2" t="s">
+      <c r="J8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L8" t="n">
@@ -408,28 +432,28 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="2">
+      <c r="A10" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B10" t="s" s="2">
+      <c r="B10" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C10" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s" s="2">
+      <c r="C10" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E10" t="s" s="2">
+      <c r="E10" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F10" t="s" s="2">
+      <c r="F10" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="2">
+      <c r="G10" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="2">
+      <c r="H10" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -454,28 +478,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="B12" t="s" s="2">
+      <c r="B12" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C12" t="s" s="2">
+      <c r="C12" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D12" t="s" s="2">
+      <c r="D12" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E12" t="s" s="2">
+      <c r="E12" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F12" t="s" s="2">
+      <c r="F12" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G12" t="s" s="2">
+      <c r="G12" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H12" t="s" s="2">
+      <c r="H12" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I12" t="s" s="2">
+      <c r="I12" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -563,10 +587,10 @@
       <c r="I15">
         <f>((C15-C14)^2+(D15- D14)^2)^.5</f>
       </c>
-      <c r="J15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K15" s="2" t="s">
+      <c r="J15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L15" t="n">
@@ -610,28 +634,28 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="2">
+      <c r="A17" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B17" t="s" s="2">
+      <c r="B17" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C17" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D17" t="s" s="2">
+      <c r="C17" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E17" t="s" s="2">
+      <c r="E17" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F17" t="s" s="2">
+      <c r="F17" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G17" t="s" s="2">
+      <c r="G17" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H17" t="s" s="2">
+      <c r="H17" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -656,28 +680,28 @@
       </c>
     </row>
     <row r="19">
-      <c r="B19" t="s" s="2">
+      <c r="B19" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C19" t="s" s="2">
+      <c r="C19" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D19" t="s" s="2">
+      <c r="D19" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E19" t="s" s="2">
+      <c r="E19" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F19" t="s" s="2">
+      <c r="F19" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G19" t="s" s="2">
+      <c r="G19" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H19" t="s" s="2">
+      <c r="H19" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I19" t="s" s="2">
+      <c r="I19" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -765,10 +789,10 @@
       <c r="I22">
         <f>((C22-C21)^2+(D22- D21)^2)^.5</f>
       </c>
-      <c r="J22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K22" s="2" t="s">
+      <c r="J22" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L22" t="n">
@@ -812,28 +836,28 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="2">
+      <c r="A24" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B24" t="s" s="2">
+      <c r="B24" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C24" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D24" t="s" s="2">
+      <c r="C24" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E24" t="s" s="2">
+      <c r="E24" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F24" t="s" s="2">
+      <c r="F24" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G24" t="s" s="2">
+      <c r="G24" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H24" t="s" s="2">
+      <c r="H24" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -858,28 +882,28 @@
       </c>
     </row>
     <row r="26">
-      <c r="B26" t="s" s="2">
+      <c r="B26" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C26" t="s" s="2">
+      <c r="C26" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D26" t="s" s="2">
+      <c r="D26" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E26" t="s" s="2">
+      <c r="E26" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F26" t="s" s="2">
+      <c r="F26" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G26" t="s" s="2">
+      <c r="G26" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H26" t="s" s="2">
+      <c r="H26" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I26" t="s" s="2">
+      <c r="I26" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -996,10 +1020,10 @@
       <c r="I30">
         <f>((C30-C29)^2+(D30- D29)^2)^.5</f>
       </c>
-      <c r="J30" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K30" s="2" t="s">
+      <c r="J30" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K30" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L30" t="n">
@@ -1043,28 +1067,28 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="s" s="2">
+      <c r="A32" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B32" t="s" s="2">
+      <c r="B32" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C32" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D32" t="s" s="2">
+      <c r="C32" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D32" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E32" t="s" s="2">
+      <c r="E32" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F32" t="s" s="2">
+      <c r="F32" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G32" t="s" s="2">
+      <c r="G32" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H32" t="s" s="2">
+      <c r="H32" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1089,28 +1113,28 @@
       </c>
     </row>
     <row r="34">
-      <c r="B34" t="s" s="2">
+      <c r="B34" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C34" t="s" s="2">
+      <c r="C34" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D34" t="s" s="2">
+      <c r="D34" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E34" t="s" s="2">
+      <c r="E34" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F34" t="s" s="2">
+      <c r="F34" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G34" t="s" s="2">
+      <c r="G34" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H34" t="s" s="2">
+      <c r="H34" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I34" t="s" s="2">
+      <c r="I34" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1198,10 +1222,10 @@
       <c r="I37">
         <f>((C37-C36)^2+(D37- D36)^2)^.5</f>
       </c>
-      <c r="J37" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K37" s="2" t="s">
+      <c r="J37" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K37" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L37" t="n">
@@ -1245,28 +1269,28 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="s" s="2">
+      <c r="A39" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B39" t="s" s="2">
+      <c r="B39" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C39" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D39" t="s" s="2">
+      <c r="C39" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D39" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E39" t="s" s="2">
+      <c r="E39" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F39" t="s" s="2">
+      <c r="F39" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G39" t="s" s="2">
+      <c r="G39" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H39" t="s" s="2">
+      <c r="H39" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1291,28 +1315,28 @@
       </c>
     </row>
     <row r="41">
-      <c r="B41" t="s" s="2">
+      <c r="B41" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C41" t="s" s="2">
+      <c r="C41" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D41" t="s" s="2">
+      <c r="D41" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E41" t="s" s="2">
+      <c r="E41" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F41" t="s" s="2">
+      <c r="F41" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G41" t="s" s="2">
+      <c r="G41" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H41" t="s" s="2">
+      <c r="H41" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I41" t="s" s="2">
+      <c r="I41" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1400,10 +1424,10 @@
       <c r="I44">
         <f>((C44-C43)^2+(D44- D43)^2)^.5</f>
       </c>
-      <c r="J44" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K44" s="2" t="s">
+      <c r="J44" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K44" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L44" t="n">
@@ -1447,28 +1471,28 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="s" s="2">
+      <c r="A46" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B46" t="s" s="2">
+      <c r="B46" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C46" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D46" t="s" s="2">
+      <c r="C46" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D46" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E46" t="s" s="2">
+      <c r="E46" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F46" t="s" s="2">
+      <c r="F46" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G46" t="s" s="2">
+      <c r="G46" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H46" t="s" s="2">
+      <c r="H46" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1493,28 +1517,28 @@
       </c>
     </row>
     <row r="48">
-      <c r="B48" t="s" s="2">
+      <c r="B48" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C48" t="s" s="2">
+      <c r="C48" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D48" t="s" s="2">
+      <c r="D48" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E48" t="s" s="2">
+      <c r="E48" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F48" t="s" s="2">
+      <c r="F48" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G48" t="s" s="2">
+      <c r="G48" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H48" t="s" s="2">
+      <c r="H48" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I48" t="s" s="2">
+      <c r="I48" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1631,10 +1655,10 @@
       <c r="I52">
         <f>((C52-C51)^2+(D52- D51)^2)^.5</f>
       </c>
-      <c r="J52" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K52" s="2" t="s">
+      <c r="J52" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K52" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L52" t="n">
@@ -1678,28 +1702,28 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="s" s="2">
+      <c r="A54" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B54" t="s" s="2">
+      <c r="B54" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C54" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D54" t="s" s="2">
+      <c r="C54" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D54" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E54" t="s" s="2">
+      <c r="E54" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F54" t="s" s="2">
+      <c r="F54" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G54" t="s" s="2">
+      <c r="G54" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H54" t="s" s="2">
+      <c r="H54" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1724,28 +1748,28 @@
       </c>
     </row>
     <row r="56">
-      <c r="B56" t="s" s="2">
+      <c r="B56" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C56" t="s" s="2">
+      <c r="C56" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D56" t="s" s="2">
+      <c r="D56" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E56" t="s" s="2">
+      <c r="E56" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F56" t="s" s="2">
+      <c r="F56" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G56" t="s" s="2">
+      <c r="G56" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H56" t="s" s="2">
+      <c r="H56" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I56" t="s" s="2">
+      <c r="I56" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1833,10 +1857,10 @@
       <c r="I59">
         <f>((C59-C58)^2+(D59- D58)^2)^.5</f>
       </c>
-      <c r="J59" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K59" s="2" t="s">
+      <c r="J59" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K59" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L59" t="n">
@@ -1880,28 +1904,28 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="s" s="2">
+      <c r="A61" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B61" t="s" s="2">
+      <c r="B61" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C61" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D61" t="s" s="2">
+      <c r="C61" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D61" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E61" t="s" s="2">
+      <c r="E61" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F61" t="s" s="2">
+      <c r="F61" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G61" t="s" s="2">
+      <c r="G61" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H61" t="s" s="2">
+      <c r="H61" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1926,28 +1950,28 @@
       </c>
     </row>
     <row r="63">
-      <c r="B63" t="s" s="2">
+      <c r="B63" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C63" t="s" s="2">
+      <c r="C63" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D63" t="s" s="2">
+      <c r="D63" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E63" t="s" s="2">
+      <c r="E63" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F63" t="s" s="2">
+      <c r="F63" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G63" t="s" s="2">
+      <c r="G63" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H63" t="s" s="2">
+      <c r="H63" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I63" t="s" s="2">
+      <c r="I63" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2035,10 +2059,10 @@
       <c r="I66">
         <f>((C66-C65)^2+(D66- D65)^2)^.5</f>
       </c>
-      <c r="J66" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K66" s="2" t="s">
+      <c r="J66" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K66" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L66" t="n">
@@ -2082,28 +2106,28 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="s" s="2">
+      <c r="A68" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B68" t="s" s="2">
+      <c r="B68" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C68" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D68" t="s" s="2">
+      <c r="C68" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D68" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E68" t="s" s="2">
+      <c r="E68" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F68" t="s" s="2">
+      <c r="F68" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G68" t="s" s="2">
+      <c r="G68" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H68" t="s" s="2">
+      <c r="H68" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2128,28 +2152,28 @@
       </c>
     </row>
     <row r="70">
-      <c r="B70" t="s" s="2">
+      <c r="B70" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C70" t="s" s="2">
+      <c r="C70" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D70" t="s" s="2">
+      <c r="D70" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E70" t="s" s="2">
+      <c r="E70" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F70" t="s" s="2">
+      <c r="F70" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G70" t="s" s="2">
+      <c r="G70" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H70" t="s" s="2">
+      <c r="H70" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I70" t="s" s="2">
+      <c r="I70" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2266,10 +2290,10 @@
       <c r="I74">
         <f>((C74-C73)^2+(D74- D73)^2)^.5</f>
       </c>
-      <c r="J74" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K74" s="2" t="s">
+      <c r="J74" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K74" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L74" t="n">
@@ -2313,28 +2337,28 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="s" s="2">
+      <c r="A76" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B76" t="s" s="2">
+      <c r="B76" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C76" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D76" t="s" s="2">
+      <c r="C76" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D76" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E76" t="s" s="2">
+      <c r="E76" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F76" t="s" s="2">
+      <c r="F76" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G76" t="s" s="2">
+      <c r="G76" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H76" t="s" s="2">
+      <c r="H76" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2359,28 +2383,28 @@
       </c>
     </row>
     <row r="78">
-      <c r="B78" t="s" s="2">
+      <c r="B78" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C78" t="s" s="2">
+      <c r="C78" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D78" t="s" s="2">
+      <c r="D78" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E78" t="s" s="2">
+      <c r="E78" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F78" t="s" s="2">
+      <c r="F78" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G78" t="s" s="2">
+      <c r="G78" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H78" t="s" s="2">
+      <c r="H78" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I78" t="s" s="2">
+      <c r="I78" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2497,10 +2521,10 @@
       <c r="I82">
         <f>((C82-C81)^2+(D82- D81)^2)^.5</f>
       </c>
-      <c r="J82" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K82" s="2" t="s">
+      <c r="J82" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K82" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L82" t="n">
@@ -2544,28 +2568,28 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="s" s="2">
+      <c r="A84" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B84" t="s" s="2">
+      <c r="B84" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C84" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D84" t="s" s="2">
+      <c r="C84" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D84" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E84" t="s" s="2">
+      <c r="E84" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F84" t="s" s="2">
+      <c r="F84" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G84" t="s" s="2">
+      <c r="G84" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H84" t="s" s="2">
+      <c r="H84" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2590,28 +2614,28 @@
       </c>
     </row>
     <row r="86">
-      <c r="B86" t="s" s="2">
+      <c r="B86" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C86" t="s" s="2">
+      <c r="C86" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D86" t="s" s="2">
+      <c r="D86" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E86" t="s" s="2">
+      <c r="E86" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F86" t="s" s="2">
+      <c r="F86" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G86" t="s" s="2">
+      <c r="G86" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H86" t="s" s="2">
+      <c r="H86" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I86" t="s" s="2">
+      <c r="I86" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2699,10 +2723,10 @@
       <c r="I89">
         <f>((C89-C88)^2+(D89- D88)^2)^.5</f>
       </c>
-      <c r="J89" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K89" s="2" t="s">
+      <c r="J89" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K89" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L89" t="n">
@@ -2746,28 +2770,28 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="s" s="2">
+      <c r="A91" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B91" t="s" s="2">
+      <c r="B91" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C91" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D91" t="s" s="2">
+      <c r="C91" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D91" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E91" t="s" s="2">
+      <c r="E91" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F91" t="s" s="2">
+      <c r="F91" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G91" t="s" s="2">
+      <c r="G91" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H91" t="s" s="2">
+      <c r="H91" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2792,28 +2816,28 @@
       </c>
     </row>
     <row r="93">
-      <c r="B93" t="s" s="2">
+      <c r="B93" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C93" t="s" s="2">
+      <c r="C93" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D93" t="s" s="2">
+      <c r="D93" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E93" t="s" s="2">
+      <c r="E93" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F93" t="s" s="2">
+      <c r="F93" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G93" t="s" s="2">
+      <c r="G93" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H93" t="s" s="2">
+      <c r="H93" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I93" t="s" s="2">
+      <c r="I93" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2901,10 +2925,10 @@
       <c r="I96">
         <f>((C96-C95)^2+(D96- D95)^2)^.5</f>
       </c>
-      <c r="J96" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K96" s="2" t="s">
+      <c r="J96" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K96" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L96" t="n">
@@ -2948,28 +2972,28 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="s" s="2">
+      <c r="A98" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B98" t="s" s="2">
+      <c r="B98" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C98" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D98" t="s" s="2">
+      <c r="C98" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D98" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E98" t="s" s="2">
+      <c r="E98" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F98" t="s" s="2">
+      <c r="F98" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G98" t="s" s="2">
+      <c r="G98" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H98" t="s" s="2">
+      <c r="H98" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2994,28 +3018,28 @@
       </c>
     </row>
     <row r="100">
-      <c r="B100" t="s" s="2">
+      <c r="B100" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C100" t="s" s="2">
+      <c r="C100" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D100" t="s" s="2">
+      <c r="D100" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E100" t="s" s="2">
+      <c r="E100" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F100" t="s" s="2">
+      <c r="F100" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G100" t="s" s="2">
+      <c r="G100" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H100" t="s" s="2">
+      <c r="H100" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I100" t="s" s="2">
+      <c r="I100" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3103,10 +3127,10 @@
       <c r="I103">
         <f>((C103-C102)^2+(D103- D102)^2)^.5</f>
       </c>
-      <c r="J103" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K103" s="2" t="s">
+      <c r="J103" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K103" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L103" t="n">
@@ -3150,28 +3174,28 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="s" s="2">
+      <c r="A105" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B105" t="s" s="2">
+      <c r="B105" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C105" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D105" t="s" s="2">
+      <c r="C105" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D105" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E105" t="s" s="2">
+      <c r="E105" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F105" t="s" s="2">
+      <c r="F105" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G105" t="s" s="2">
+      <c r="G105" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H105" t="s" s="2">
+      <c r="H105" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3196,28 +3220,28 @@
       </c>
     </row>
     <row r="107">
-      <c r="B107" t="s" s="2">
+      <c r="B107" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C107" t="s" s="2">
+      <c r="C107" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D107" t="s" s="2">
+      <c r="D107" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E107" t="s" s="2">
+      <c r="E107" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F107" t="s" s="2">
+      <c r="F107" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G107" t="s" s="2">
+      <c r="G107" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H107" t="s" s="2">
+      <c r="H107" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I107" t="s" s="2">
+      <c r="I107" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3305,10 +3329,10 @@
       <c r="I110">
         <f>((C110-C109)^2+(D110- D109)^2)^.5</f>
       </c>
-      <c r="J110" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K110" s="2" t="s">
+      <c r="J110" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K110" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L110" t="n">
@@ -3352,28 +3376,28 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="s" s="2">
+      <c r="A112" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B112" t="s" s="2">
+      <c r="B112" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C112" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D112" t="s" s="2">
+      <c r="C112" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D112" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E112" t="s" s="2">
+      <c r="E112" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F112" t="s" s="2">
+      <c r="F112" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G112" t="s" s="2">
+      <c r="G112" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H112" t="s" s="2">
+      <c r="H112" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3398,28 +3422,28 @@
       </c>
     </row>
     <row r="114">
-      <c r="B114" t="s" s="2">
+      <c r="B114" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C114" t="s" s="2">
+      <c r="C114" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D114" t="s" s="2">
+      <c r="D114" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E114" t="s" s="2">
+      <c r="E114" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F114" t="s" s="2">
+      <c r="F114" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G114" t="s" s="2">
+      <c r="G114" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H114" t="s" s="2">
+      <c r="H114" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I114" t="s" s="2">
+      <c r="I114" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3507,10 +3531,10 @@
       <c r="I117">
         <f>((C117-C116)^2+(D117- D116)^2)^.5</f>
       </c>
-      <c r="J117" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K117" s="2" t="s">
+      <c r="J117" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K117" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L117" t="n">
@@ -3554,28 +3578,28 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="s" s="2">
+      <c r="A119" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B119" t="s" s="2">
+      <c r="B119" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C119" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D119" t="s" s="2">
+      <c r="C119" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D119" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E119" t="s" s="2">
+      <c r="E119" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F119" t="s" s="2">
+      <c r="F119" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G119" t="s" s="2">
+      <c r="G119" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H119" t="s" s="2">
+      <c r="H119" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3600,28 +3624,28 @@
       </c>
     </row>
     <row r="121">
-      <c r="B121" t="s" s="2">
+      <c r="B121" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C121" t="s" s="2">
+      <c r="C121" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D121" t="s" s="2">
+      <c r="D121" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E121" t="s" s="2">
+      <c r="E121" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F121" t="s" s="2">
+      <c r="F121" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G121" t="s" s="2">
+      <c r="G121" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H121" t="s" s="2">
+      <c r="H121" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I121" t="s" s="2">
+      <c r="I121" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3709,10 +3733,10 @@
       <c r="I124">
         <f>((C124-C123)^2+(D124- D123)^2)^.5</f>
       </c>
-      <c r="J124" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K124" s="2" t="s">
+      <c r="J124" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K124" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L124" t="n">
@@ -3756,28 +3780,28 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="s" s="2">
+      <c r="A126" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B126" t="s" s="2">
+      <c r="B126" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C126" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D126" t="s" s="2">
+      <c r="C126" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D126" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E126" t="s" s="2">
+      <c r="E126" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F126" t="s" s="2">
+      <c r="F126" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G126" t="s" s="2">
+      <c r="G126" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H126" t="s" s="2">
+      <c r="H126" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3802,28 +3826,28 @@
       </c>
     </row>
     <row r="128">
-      <c r="B128" t="s" s="2">
+      <c r="B128" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C128" t="s" s="2">
+      <c r="C128" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D128" t="s" s="2">
+      <c r="D128" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E128" t="s" s="2">
+      <c r="E128" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F128" t="s" s="2">
+      <c r="F128" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G128" t="s" s="2">
+      <c r="G128" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H128" t="s" s="2">
+      <c r="H128" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I128" t="s" s="2">
+      <c r="I128" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3911,10 +3935,10 @@
       <c r="I131">
         <f>((C131-C130)^2+(D131- D130)^2)^.5</f>
       </c>
-      <c r="J131" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K131" s="2" t="s">
+      <c r="J131" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K131" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L131" t="n">
@@ -3958,28 +3982,28 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="s" s="2">
+      <c r="A133" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B133" t="s" s="2">
+      <c r="B133" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C133" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D133" t="s" s="2">
+      <c r="C133" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D133" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E133" t="s" s="2">
+      <c r="E133" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F133" t="s" s="2">
+      <c r="F133" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G133" t="s" s="2">
+      <c r="G133" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H133" t="s" s="2">
+      <c r="H133" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4004,28 +4028,28 @@
       </c>
     </row>
     <row r="135">
-      <c r="B135" t="s" s="2">
+      <c r="B135" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C135" t="s" s="2">
+      <c r="C135" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D135" t="s" s="2">
+      <c r="D135" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E135" t="s" s="2">
+      <c r="E135" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F135" t="s" s="2">
+      <c r="F135" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G135" t="s" s="2">
+      <c r="G135" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H135" t="s" s="2">
+      <c r="H135" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I135" t="s" s="2">
+      <c r="I135" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4113,10 +4137,10 @@
       <c r="I138">
         <f>((C138-C137)^2+(D138- D137)^2)^.5</f>
       </c>
-      <c r="J138" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K138" s="2" t="s">
+      <c r="J138" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K138" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L138" t="n">
@@ -4160,28 +4184,28 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="s" s="2">
+      <c r="A140" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B140" t="s" s="2">
+      <c r="B140" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C140" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D140" t="s" s="2">
+      <c r="C140" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D140" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E140" t="s" s="2">
+      <c r="E140" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F140" t="s" s="2">
+      <c r="F140" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G140" t="s" s="2">
+      <c r="G140" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H140" t="s" s="2">
+      <c r="H140" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4206,28 +4230,28 @@
       </c>
     </row>
     <row r="142">
-      <c r="B142" t="s" s="2">
+      <c r="B142" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C142" t="s" s="2">
+      <c r="C142" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D142" t="s" s="2">
+      <c r="D142" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E142" t="s" s="2">
+      <c r="E142" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F142" t="s" s="2">
+      <c r="F142" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G142" t="s" s="2">
+      <c r="G142" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H142" t="s" s="2">
+      <c r="H142" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I142" t="s" s="2">
+      <c r="I142" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4315,10 +4339,10 @@
       <c r="I145">
         <f>((C145-C144)^2+(D145- D144)^2)^.5</f>
       </c>
-      <c r="J145" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K145" s="2" t="s">
+      <c r="J145" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K145" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L145" t="n">
@@ -4362,28 +4386,28 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="s" s="2">
+      <c r="A147" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B147" t="s" s="2">
+      <c r="B147" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C147" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D147" t="s" s="2">
+      <c r="C147" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D147" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E147" t="s" s="2">
+      <c r="E147" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F147" t="s" s="2">
+      <c r="F147" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G147" t="s" s="2">
+      <c r="G147" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H147" t="s" s="2">
+      <c r="H147" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4408,28 +4432,28 @@
       </c>
     </row>
     <row r="149">
-      <c r="B149" t="s" s="2">
+      <c r="B149" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C149" t="s" s="2">
+      <c r="C149" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D149" t="s" s="2">
+      <c r="D149" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E149" t="s" s="2">
+      <c r="E149" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F149" t="s" s="2">
+      <c r="F149" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G149" t="s" s="2">
+      <c r="G149" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H149" t="s" s="2">
+      <c r="H149" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I149" t="s" s="2">
+      <c r="I149" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4517,10 +4541,10 @@
       <c r="I152">
         <f>((C152-C151)^2+(D152- D151)^2)^.5</f>
       </c>
-      <c r="J152" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K152" s="2" t="s">
+      <c r="J152" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K152" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L152" t="n">
@@ -4564,28 +4588,28 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="s" s="2">
+      <c r="A154" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B154" t="s" s="2">
+      <c r="B154" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C154" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D154" t="s" s="2">
+      <c r="C154" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D154" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E154" t="s" s="2">
+      <c r="E154" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F154" t="s" s="2">
+      <c r="F154" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G154" t="s" s="2">
+      <c r="G154" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H154" t="s" s="2">
+      <c r="H154" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4610,28 +4634,28 @@
       </c>
     </row>
     <row r="156">
-      <c r="B156" t="s" s="2">
+      <c r="B156" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C156" t="s" s="2">
+      <c r="C156" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D156" t="s" s="2">
+      <c r="D156" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E156" t="s" s="2">
+      <c r="E156" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F156" t="s" s="2">
+      <c r="F156" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G156" t="s" s="2">
+      <c r="G156" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H156" t="s" s="2">
+      <c r="H156" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I156" t="s" s="2">
+      <c r="I156" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4719,10 +4743,10 @@
       <c r="I159">
         <f>((C159-C158)^2+(D159- D158)^2)^.5</f>
       </c>
-      <c r="J159" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K159" s="2" t="s">
+      <c r="J159" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K159" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L159" t="n">
@@ -4766,28 +4790,28 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="s" s="2">
+      <c r="A161" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B161" t="s" s="2">
+      <c r="B161" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C161" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D161" t="s" s="2">
+      <c r="C161" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D161" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E161" t="s" s="2">
+      <c r="E161" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F161" t="s" s="2">
+      <c r="F161" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G161" t="s" s="2">
+      <c r="G161" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H161" t="s" s="2">
+      <c r="H161" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4812,28 +4836,28 @@
       </c>
     </row>
     <row r="163">
-      <c r="B163" t="s" s="2">
+      <c r="B163" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C163" t="s" s="2">
+      <c r="C163" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D163" t="s" s="2">
+      <c r="D163" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E163" t="s" s="2">
+      <c r="E163" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F163" t="s" s="2">
+      <c r="F163" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G163" t="s" s="2">
+      <c r="G163" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H163" t="s" s="2">
+      <c r="H163" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I163" t="s" s="2">
+      <c r="I163" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4921,10 +4945,10 @@
       <c r="I166">
         <f>((C166-C165)^2+(D166- D165)^2)^.5</f>
       </c>
-      <c r="J166" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K166" s="2" t="s">
+      <c r="J166" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K166" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L166" t="n">
@@ -4968,28 +4992,28 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="s" s="2">
+      <c r="A168" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B168" t="s" s="2">
+      <c r="B168" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C168" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D168" t="s" s="2">
+      <c r="C168" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D168" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E168" t="s" s="2">
+      <c r="E168" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F168" t="s" s="2">
+      <c r="F168" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G168" t="s" s="2">
+      <c r="G168" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H168" t="s" s="2">
+      <c r="H168" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5014,28 +5038,28 @@
       </c>
     </row>
     <row r="170">
-      <c r="B170" t="s" s="2">
+      <c r="B170" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C170" t="s" s="2">
+      <c r="C170" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D170" t="s" s="2">
+      <c r="D170" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E170" t="s" s="2">
+      <c r="E170" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F170" t="s" s="2">
+      <c r="F170" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G170" t="s" s="2">
+      <c r="G170" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H170" t="s" s="2">
+      <c r="H170" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I170" t="s" s="2">
+      <c r="I170" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5123,10 +5147,10 @@
       <c r="I173">
         <f>((C173-C172)^2+(D173- D172)^2)^.5</f>
       </c>
-      <c r="J173" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K173" s="2" t="s">
+      <c r="J173" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K173" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L173" t="n">
@@ -5170,28 +5194,28 @@
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="s" s="2">
+      <c r="A175" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B175" t="s" s="2">
+      <c r="B175" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C175" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D175" t="s" s="2">
+      <c r="C175" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D175" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E175" t="s" s="2">
+      <c r="E175" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F175" t="s" s="2">
+      <c r="F175" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G175" t="s" s="2">
+      <c r="G175" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H175" t="s" s="2">
+      <c r="H175" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5216,28 +5240,28 @@
       </c>
     </row>
     <row r="177">
-      <c r="B177" t="s" s="2">
+      <c r="B177" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C177" t="s" s="2">
+      <c r="C177" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D177" t="s" s="2">
+      <c r="D177" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E177" t="s" s="2">
+      <c r="E177" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F177" t="s" s="2">
+      <c r="F177" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G177" t="s" s="2">
+      <c r="G177" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H177" t="s" s="2">
+      <c r="H177" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I177" t="s" s="2">
+      <c r="I177" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5325,10 +5349,10 @@
       <c r="I180">
         <f>((C180-C179)^2+(D180- D179)^2)^.5</f>
       </c>
-      <c r="J180" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K180" s="2" t="s">
+      <c r="J180" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K180" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L180" t="n">
@@ -5372,28 +5396,28 @@
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="s" s="2">
+      <c r="A182" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B182" t="s" s="2">
+      <c r="B182" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C182" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D182" t="s" s="2">
+      <c r="C182" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D182" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E182" t="s" s="2">
+      <c r="E182" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F182" t="s" s="2">
+      <c r="F182" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G182" t="s" s="2">
+      <c r="G182" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H182" t="s" s="2">
+      <c r="H182" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5418,28 +5442,28 @@
       </c>
     </row>
     <row r="184">
-      <c r="B184" t="s" s="2">
+      <c r="B184" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C184" t="s" s="2">
+      <c r="C184" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D184" t="s" s="2">
+      <c r="D184" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E184" t="s" s="2">
+      <c r="E184" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F184" t="s" s="2">
+      <c r="F184" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G184" t="s" s="2">
+      <c r="G184" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H184" t="s" s="2">
+      <c r="H184" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I184" t="s" s="2">
+      <c r="I184" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5527,10 +5551,10 @@
       <c r="I187">
         <f>((C187-C186)^2+(D187- D186)^2)^.5</f>
       </c>
-      <c r="J187" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K187" s="2" t="s">
+      <c r="J187" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K187" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L187" t="n">
@@ -5574,28 +5598,28 @@
       </c>
     </row>
     <row r="189">
-      <c r="A189" t="s" s="2">
+      <c r="A189" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B189" t="s" s="2">
+      <c r="B189" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C189" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D189" t="s" s="2">
+      <c r="C189" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D189" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E189" t="s" s="2">
+      <c r="E189" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F189" t="s" s="2">
+      <c r="F189" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G189" t="s" s="2">
+      <c r="G189" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H189" t="s" s="2">
+      <c r="H189" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5620,28 +5644,28 @@
       </c>
     </row>
     <row r="191">
-      <c r="B191" t="s" s="2">
+      <c r="B191" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C191" t="s" s="2">
+      <c r="C191" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D191" t="s" s="2">
+      <c r="D191" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E191" t="s" s="2">
+      <c r="E191" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F191" t="s" s="2">
+      <c r="F191" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G191" t="s" s="2">
+      <c r="G191" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H191" t="s" s="2">
+      <c r="H191" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I191" t="s" s="2">
+      <c r="I191" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5729,10 +5753,10 @@
       <c r="I194">
         <f>((C194-C193)^2+(D194- D193)^2)^.5</f>
       </c>
-      <c r="J194" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K194" s="2" t="s">
+      <c r="J194" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K194" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L194" t="n">
@@ -5776,28 +5800,28 @@
       </c>
     </row>
     <row r="196">
-      <c r="A196" t="s" s="2">
+      <c r="A196" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B196" t="s" s="2">
+      <c r="B196" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C196" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D196" t="s" s="2">
+      <c r="C196" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D196" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E196" t="s" s="2">
+      <c r="E196" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F196" t="s" s="2">
+      <c r="F196" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G196" t="s" s="2">
+      <c r="G196" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H196" t="s" s="2">
+      <c r="H196" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5822,28 +5846,28 @@
       </c>
     </row>
     <row r="198">
-      <c r="B198" t="s" s="2">
+      <c r="B198" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C198" t="s" s="2">
+      <c r="C198" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D198" t="s" s="2">
+      <c r="D198" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E198" t="s" s="2">
+      <c r="E198" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F198" t="s" s="2">
+      <c r="F198" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G198" t="s" s="2">
+      <c r="G198" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H198" t="s" s="2">
+      <c r="H198" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I198" t="s" s="2">
+      <c r="I198" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5931,10 +5955,10 @@
       <c r="I201">
         <f>((C201-C200)^2+(D201- D200)^2)^.5</f>
       </c>
-      <c r="J201" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K201" s="2" t="s">
+      <c r="J201" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K201" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L201" t="n">
@@ -5978,28 +6002,28 @@
       </c>
     </row>
     <row r="203">
-      <c r="A203" t="s" s="2">
+      <c r="A203" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B203" t="s" s="2">
+      <c r="B203" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C203" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D203" t="s" s="2">
+      <c r="C203" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D203" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E203" t="s" s="2">
+      <c r="E203" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F203" t="s" s="2">
+      <c r="F203" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G203" t="s" s="2">
+      <c r="G203" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H203" t="s" s="2">
+      <c r="H203" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6024,28 +6048,28 @@
       </c>
     </row>
     <row r="205">
-      <c r="B205" t="s" s="2">
+      <c r="B205" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C205" t="s" s="2">
+      <c r="C205" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D205" t="s" s="2">
+      <c r="D205" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E205" t="s" s="2">
+      <c r="E205" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F205" t="s" s="2">
+      <c r="F205" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G205" t="s" s="2">
+      <c r="G205" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H205" t="s" s="2">
+      <c r="H205" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I205" t="s" s="2">
+      <c r="I205" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6133,10 +6157,10 @@
       <c r="I208">
         <f>((C208-C207)^2+(D208- D207)^2)^.5</f>
       </c>
-      <c r="J208" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K208" s="2" t="s">
+      <c r="J208" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K208" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L208" t="n">
@@ -6180,28 +6204,28 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" t="s" s="2">
+      <c r="A210" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B210" t="s" s="2">
+      <c r="B210" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C210" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D210" t="s" s="2">
+      <c r="C210" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D210" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E210" t="s" s="2">
+      <c r="E210" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F210" t="s" s="2">
+      <c r="F210" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G210" t="s" s="2">
+      <c r="G210" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H210" t="s" s="2">
+      <c r="H210" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6226,28 +6250,28 @@
       </c>
     </row>
     <row r="212">
-      <c r="B212" t="s" s="2">
+      <c r="B212" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C212" t="s" s="2">
+      <c r="C212" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D212" t="s" s="2">
+      <c r="D212" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E212" t="s" s="2">
+      <c r="E212" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F212" t="s" s="2">
+      <c r="F212" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G212" t="s" s="2">
+      <c r="G212" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H212" t="s" s="2">
+      <c r="H212" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I212" t="s" s="2">
+      <c r="I212" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6335,10 +6359,10 @@
       <c r="I215">
         <f>((C215-C214)^2+(D215- D214)^2)^.5</f>
       </c>
-      <c r="J215" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K215" s="2" t="s">
+      <c r="J215" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K215" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L215" t="n">
@@ -6382,28 +6406,28 @@
       </c>
     </row>
     <row r="217">
-      <c r="A217" t="s" s="2">
+      <c r="A217" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B217" t="s" s="2">
+      <c r="B217" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C217" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D217" t="s" s="2">
+      <c r="C217" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D217" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E217" t="s" s="2">
+      <c r="E217" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F217" t="s" s="2">
+      <c r="F217" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G217" t="s" s="2">
+      <c r="G217" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H217" t="s" s="2">
+      <c r="H217" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6428,28 +6452,28 @@
       </c>
     </row>
     <row r="219">
-      <c r="B219" t="s" s="2">
+      <c r="B219" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C219" t="s" s="2">
+      <c r="C219" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D219" t="s" s="2">
+      <c r="D219" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E219" t="s" s="2">
+      <c r="E219" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F219" t="s" s="2">
+      <c r="F219" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G219" t="s" s="2">
+      <c r="G219" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H219" t="s" s="2">
+      <c r="H219" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I219" t="s" s="2">
+      <c r="I219" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6566,10 +6590,10 @@
       <c r="I223">
         <f>((C223-C222)^2+(D223- D222)^2)^.5</f>
       </c>
-      <c r="J223" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K223" s="2" t="s">
+      <c r="J223" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K223" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L223" t="n">
@@ -6613,28 +6637,28 @@
       </c>
     </row>
     <row r="225">
-      <c r="A225" t="s" s="2">
+      <c r="A225" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B225" t="s" s="2">
+      <c r="B225" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C225" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D225" t="s" s="2">
+      <c r="C225" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D225" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E225" t="s" s="2">
+      <c r="E225" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F225" t="s" s="2">
+      <c r="F225" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G225" t="s" s="2">
+      <c r="G225" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H225" t="s" s="2">
+      <c r="H225" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6659,28 +6683,28 @@
       </c>
     </row>
     <row r="227">
-      <c r="B227" t="s" s="2">
+      <c r="B227" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C227" t="s" s="2">
+      <c r="C227" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D227" t="s" s="2">
+      <c r="D227" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E227" t="s" s="2">
+      <c r="E227" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F227" t="s" s="2">
+      <c r="F227" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G227" t="s" s="2">
+      <c r="G227" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H227" t="s" s="2">
+      <c r="H227" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I227" t="s" s="2">
+      <c r="I227" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6768,10 +6792,10 @@
       <c r="I230">
         <f>((C230-C229)^2+(D230- D229)^2)^.5</f>
       </c>
-      <c r="J230" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K230" s="2" t="s">
+      <c r="J230" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K230" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L230" t="n">
@@ -6815,28 +6839,28 @@
       </c>
     </row>
     <row r="232">
-      <c r="A232" t="s" s="2">
+      <c r="A232" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B232" t="s" s="2">
+      <c r="B232" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C232" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D232" t="s" s="2">
+      <c r="C232" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D232" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E232" t="s" s="2">
+      <c r="E232" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F232" t="s" s="2">
+      <c r="F232" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G232" t="s" s="2">
+      <c r="G232" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H232" t="s" s="2">
+      <c r="H232" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6861,28 +6885,28 @@
       </c>
     </row>
     <row r="234">
-      <c r="B234" t="s" s="2">
+      <c r="B234" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C234" t="s" s="2">
+      <c r="C234" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D234" t="s" s="2">
+      <c r="D234" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E234" t="s" s="2">
+      <c r="E234" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F234" t="s" s="2">
+      <c r="F234" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G234" t="s" s="2">
+      <c r="G234" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H234" t="s" s="2">
+      <c r="H234" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I234" t="s" s="2">
+      <c r="I234" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6970,10 +6994,10 @@
       <c r="I237">
         <f>((C237-C236)^2+(D237- D236)^2)^.5</f>
       </c>
-      <c r="J237" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K237" s="2" t="s">
+      <c r="J237" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K237" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L237" t="n">
@@ -7017,28 +7041,28 @@
       </c>
     </row>
     <row r="239">
-      <c r="A239" t="s" s="2">
+      <c r="A239" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B239" t="s" s="2">
+      <c r="B239" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C239" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D239" t="s" s="2">
+      <c r="C239" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D239" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E239" t="s" s="2">
+      <c r="E239" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F239" t="s" s="2">
+      <c r="F239" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G239" t="s" s="2">
+      <c r="G239" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H239" t="s" s="2">
+      <c r="H239" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -7063,28 +7087,28 @@
       </c>
     </row>
     <row r="241">
-      <c r="B241" t="s" s="2">
+      <c r="B241" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C241" t="s" s="2">
+      <c r="C241" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D241" t="s" s="2">
+      <c r="D241" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E241" t="s" s="2">
+      <c r="E241" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F241" t="s" s="2">
+      <c r="F241" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G241" t="s" s="2">
+      <c r="G241" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H241" t="s" s="2">
+      <c r="H241" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I241" t="s" s="2">
+      <c r="I241" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -7172,10 +7196,10 @@
       <c r="I244">
         <f>((C244-C243)^2+(D244- D243)^2)^.5</f>
       </c>
-      <c r="J244" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K244" s="2" t="s">
+      <c r="J244" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K244" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L244" t="n">
@@ -7219,28 +7243,28 @@
       </c>
     </row>
     <row r="246">
-      <c r="A246" t="s" s="2">
+      <c r="A246" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B246" t="s" s="2">
+      <c r="B246" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C246" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D246" t="s" s="2">
+      <c r="C246" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D246" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E246" t="s" s="2">
+      <c r="E246" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F246" t="s" s="2">
+      <c r="F246" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G246" t="s" s="2">
+      <c r="G246" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H246" t="s" s="2">
+      <c r="H246" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -7265,28 +7289,28 @@
       </c>
     </row>
     <row r="248">
-      <c r="B248" t="s" s="2">
+      <c r="B248" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C248" t="s" s="2">
+      <c r="C248" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D248" t="s" s="2">
+      <c r="D248" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E248" t="s" s="2">
+      <c r="E248" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F248" t="s" s="2">
+      <c r="F248" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G248" t="s" s="2">
+      <c r="G248" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H248" t="s" s="2">
+      <c r="H248" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I248" t="s" s="2">
+      <c r="I248" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -7374,10 +7398,10 @@
       <c r="I251">
         <f>((C251-C250)^2+(D251- D250)^2)^.5</f>
       </c>
-      <c r="J251" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K251" s="2" t="s">
+      <c r="J251" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K251" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L251" t="n">
@@ -7421,28 +7445,28 @@
       </c>
     </row>
     <row r="253">
-      <c r="A253" t="s" s="2">
+      <c r="A253" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B253" t="s" s="2">
+      <c r="B253" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C253" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D253" t="s" s="2">
+      <c r="C253" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D253" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E253" t="s" s="2">
+      <c r="E253" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F253" t="s" s="2">
+      <c r="F253" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G253" t="s" s="2">
+      <c r="G253" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H253" t="s" s="2">
+      <c r="H253" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -7467,28 +7491,28 @@
       </c>
     </row>
     <row r="255">
-      <c r="B255" t="s" s="2">
+      <c r="B255" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C255" t="s" s="2">
+      <c r="C255" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D255" t="s" s="2">
+      <c r="D255" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E255" t="s" s="2">
+      <c r="E255" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F255" t="s" s="2">
+      <c r="F255" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G255" t="s" s="2">
+      <c r="G255" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H255" t="s" s="2">
+      <c r="H255" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I255" t="s" s="2">
+      <c r="I255" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -7576,10 +7600,10 @@
       <c r="I258">
         <f>((C258-C257)^2+(D258- D257)^2)^.5</f>
       </c>
-      <c r="J258" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K258" s="2" t="s">
+      <c r="J258" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K258" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L258" t="n">
@@ -7623,28 +7647,28 @@
       </c>
     </row>
     <row r="260">
-      <c r="A260" t="s" s="2">
+      <c r="A260" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B260" t="s" s="2">
+      <c r="B260" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C260" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D260" t="s" s="2">
+      <c r="C260" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D260" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E260" t="s" s="2">
+      <c r="E260" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F260" t="s" s="2">
+      <c r="F260" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G260" t="s" s="2">
+      <c r="G260" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H260" t="s" s="2">
+      <c r="H260" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -7669,28 +7693,28 @@
       </c>
     </row>
     <row r="262">
-      <c r="B262" t="s" s="2">
+      <c r="B262" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C262" t="s" s="2">
+      <c r="C262" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D262" t="s" s="2">
+      <c r="D262" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E262" t="s" s="2">
+      <c r="E262" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F262" t="s" s="2">
+      <c r="F262" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G262" t="s" s="2">
+      <c r="G262" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H262" t="s" s="2">
+      <c r="H262" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I262" t="s" s="2">
+      <c r="I262" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -7778,10 +7802,10 @@
       <c r="I265">
         <f>((C265-C264)^2+(D265- D264)^2)^.5</f>
       </c>
-      <c r="J265" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K265" s="2" t="s">
+      <c r="J265" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K265" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L265" t="n">
@@ -7825,28 +7849,28 @@
       </c>
     </row>
     <row r="267">
-      <c r="A267" t="s" s="2">
+      <c r="A267" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B267" t="s" s="2">
+      <c r="B267" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C267" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D267" t="s" s="2">
+      <c r="C267" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D267" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E267" t="s" s="2">
+      <c r="E267" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F267" t="s" s="2">
+      <c r="F267" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G267" t="s" s="2">
+      <c r="G267" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H267" t="s" s="2">
+      <c r="H267" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -7871,28 +7895,28 @@
       </c>
     </row>
     <row r="269">
-      <c r="B269" t="s" s="2">
+      <c r="B269" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C269" t="s" s="2">
+      <c r="C269" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D269" t="s" s="2">
+      <c r="D269" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E269" t="s" s="2">
+      <c r="E269" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F269" t="s" s="2">
+      <c r="F269" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G269" t="s" s="2">
+      <c r="G269" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H269" t="s" s="2">
+      <c r="H269" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I269" t="s" s="2">
+      <c r="I269" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -7980,10 +8004,10 @@
       <c r="I272">
         <f>((C272-C271)^2+(D272- D271)^2)^.5</f>
       </c>
-      <c r="J272" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K272" s="2" t="s">
+      <c r="J272" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K272" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L272" t="n">
@@ -8027,28 +8051,28 @@
       </c>
     </row>
     <row r="274">
-      <c r="A274" t="s" s="2">
+      <c r="A274" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B274" t="s" s="2">
+      <c r="B274" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C274" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D274" t="s" s="2">
+      <c r="C274" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D274" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E274" t="s" s="2">
+      <c r="E274" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F274" t="s" s="2">
+      <c r="F274" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G274" t="s" s="2">
+      <c r="G274" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H274" t="s" s="2">
+      <c r="H274" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -8073,28 +8097,28 @@
       </c>
     </row>
     <row r="276">
-      <c r="B276" t="s" s="2">
+      <c r="B276" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C276" t="s" s="2">
+      <c r="C276" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D276" t="s" s="2">
+      <c r="D276" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E276" t="s" s="2">
+      <c r="E276" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F276" t="s" s="2">
+      <c r="F276" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G276" t="s" s="2">
+      <c r="G276" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H276" t="s" s="2">
+      <c r="H276" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I276" t="s" s="2">
+      <c r="I276" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -8182,10 +8206,10 @@
       <c r="I279">
         <f>((C279-C278)^2+(D279- D278)^2)^.5</f>
       </c>
-      <c r="J279" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K279" s="2" t="s">
+      <c r="J279" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K279" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L279" t="n">
@@ -8229,28 +8253,28 @@
       </c>
     </row>
     <row r="281">
-      <c r="A281" t="s" s="2">
+      <c r="A281" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B281" t="s" s="2">
+      <c r="B281" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C281" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D281" t="s" s="2">
+      <c r="C281" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D281" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E281" t="s" s="2">
+      <c r="E281" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F281" t="s" s="2">
+      <c r="F281" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G281" t="s" s="2">
+      <c r="G281" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H281" t="s" s="2">
+      <c r="H281" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -8275,28 +8299,28 @@
       </c>
     </row>
     <row r="283">
-      <c r="B283" t="s" s="2">
+      <c r="B283" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C283" t="s" s="2">
+      <c r="C283" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D283" t="s" s="2">
+      <c r="D283" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E283" t="s" s="2">
+      <c r="E283" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F283" t="s" s="2">
+      <c r="F283" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G283" t="s" s="2">
+      <c r="G283" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H283" t="s" s="2">
+      <c r="H283" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I283" t="s" s="2">
+      <c r="I283" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -8384,10 +8408,10 @@
       <c r="I286">
         <f>((C286-C285)^2+(D286- D285)^2)^.5</f>
       </c>
-      <c r="J286" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K286" s="2" t="s">
+      <c r="J286" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K286" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L286" t="n">
@@ -8431,28 +8455,28 @@
       </c>
     </row>
     <row r="288">
-      <c r="A288" t="s" s="2">
+      <c r="A288" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B288" t="s" s="2">
+      <c r="B288" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C288" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D288" t="s" s="2">
+      <c r="C288" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D288" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E288" t="s" s="2">
+      <c r="E288" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F288" t="s" s="2">
+      <c r="F288" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G288" t="s" s="2">
+      <c r="G288" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H288" t="s" s="2">
+      <c r="H288" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -8477,28 +8501,28 @@
       </c>
     </row>
     <row r="290">
-      <c r="B290" t="s" s="2">
+      <c r="B290" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C290" t="s" s="2">
+      <c r="C290" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D290" t="s" s="2">
+      <c r="D290" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E290" t="s" s="2">
+      <c r="E290" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F290" t="s" s="2">
+      <c r="F290" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G290" t="s" s="2">
+      <c r="G290" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H290" t="s" s="2">
+      <c r="H290" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I290" t="s" s="2">
+      <c r="I290" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -8586,10 +8610,10 @@
       <c r="I293">
         <f>((C293-C292)^2+(D293- D292)^2)^.5</f>
       </c>
-      <c r="J293" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K293" s="2" t="s">
+      <c r="J293" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K293" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L293" t="n">
@@ -8633,28 +8657,28 @@
       </c>
     </row>
     <row r="295">
-      <c r="A295" t="s" s="2">
+      <c r="A295" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B295" t="s" s="2">
+      <c r="B295" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C295" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D295" t="s" s="2">
+      <c r="C295" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D295" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E295" t="s" s="2">
+      <c r="E295" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F295" t="s" s="2">
+      <c r="F295" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G295" t="s" s="2">
+      <c r="G295" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H295" t="s" s="2">
+      <c r="H295" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -8679,28 +8703,28 @@
       </c>
     </row>
     <row r="297">
-      <c r="B297" t="s" s="2">
+      <c r="B297" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C297" t="s" s="2">
+      <c r="C297" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D297" t="s" s="2">
+      <c r="D297" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E297" t="s" s="2">
+      <c r="E297" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F297" t="s" s="2">
+      <c r="F297" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G297" t="s" s="2">
+      <c r="G297" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H297" t="s" s="2">
+      <c r="H297" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I297" t="s" s="2">
+      <c r="I297" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -8817,10 +8841,10 @@
       <c r="I301">
         <f>((C301-C300)^2+(D301- D300)^2)^.5</f>
       </c>
-      <c r="J301" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K301" s="2" t="s">
+      <c r="J301" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K301" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L301" t="n">
@@ -8864,28 +8888,28 @@
       </c>
     </row>
     <row r="303">
-      <c r="A303" t="s" s="2">
+      <c r="A303" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B303" t="s" s="2">
+      <c r="B303" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C303" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D303" t="s" s="2">
+      <c r="C303" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D303" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E303" t="s" s="2">
+      <c r="E303" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F303" t="s" s="2">
+      <c r="F303" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G303" t="s" s="2">
+      <c r="G303" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H303" t="s" s="2">
+      <c r="H303" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -8910,28 +8934,28 @@
       </c>
     </row>
     <row r="305">
-      <c r="B305" t="s" s="2">
+      <c r="B305" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C305" t="s" s="2">
+      <c r="C305" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D305" t="s" s="2">
+      <c r="D305" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E305" t="s" s="2">
+      <c r="E305" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F305" t="s" s="2">
+      <c r="F305" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G305" t="s" s="2">
+      <c r="G305" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H305" t="s" s="2">
+      <c r="H305" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I305" t="s" s="2">
+      <c r="I305" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -9019,10 +9043,10 @@
       <c r="I308">
         <f>((C308-C307)^2+(D308- D307)^2)^.5</f>
       </c>
-      <c r="J308" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K308" s="2" t="s">
+      <c r="J308" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K308" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L308" t="n">
@@ -9066,28 +9090,28 @@
       </c>
     </row>
     <row r="310">
-      <c r="A310" t="s" s="2">
+      <c r="A310" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B310" t="s" s="2">
+      <c r="B310" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C310" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D310" t="s" s="2">
+      <c r="C310" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D310" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E310" t="s" s="2">
+      <c r="E310" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F310" t="s" s="2">
+      <c r="F310" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G310" t="s" s="2">
+      <c r="G310" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H310" t="s" s="2">
+      <c r="H310" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -9112,28 +9136,28 @@
       </c>
     </row>
     <row r="312">
-      <c r="B312" t="s" s="2">
+      <c r="B312" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C312" t="s" s="2">
+      <c r="C312" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D312" t="s" s="2">
+      <c r="D312" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E312" t="s" s="2">
+      <c r="E312" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F312" t="s" s="2">
+      <c r="F312" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G312" t="s" s="2">
+      <c r="G312" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H312" t="s" s="2">
+      <c r="H312" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I312" t="s" s="2">
+      <c r="I312" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -9221,10 +9245,10 @@
       <c r="I315">
         <f>((C315-C314)^2+(D315- D314)^2)^.5</f>
       </c>
-      <c r="J315" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K315" s="2" t="s">
+      <c r="J315" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K315" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L315" t="n">
@@ -9268,28 +9292,28 @@
       </c>
     </row>
     <row r="317">
-      <c r="A317" t="s" s="2">
+      <c r="A317" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B317" t="s" s="2">
+      <c r="B317" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C317" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D317" t="s" s="2">
+      <c r="C317" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D317" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E317" t="s" s="2">
+      <c r="E317" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F317" t="s" s="2">
+      <c r="F317" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G317" t="s" s="2">
+      <c r="G317" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H317" t="s" s="2">
+      <c r="H317" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -9314,28 +9338,28 @@
       </c>
     </row>
     <row r="319">
-      <c r="B319" t="s" s="2">
+      <c r="B319" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C319" t="s" s="2">
+      <c r="C319" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D319" t="s" s="2">
+      <c r="D319" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E319" t="s" s="2">
+      <c r="E319" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F319" t="s" s="2">
+      <c r="F319" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G319" t="s" s="2">
+      <c r="G319" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H319" t="s" s="2">
+      <c r="H319" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I319" t="s" s="2">
+      <c r="I319" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -9423,10 +9447,10 @@
       <c r="I322">
         <f>((C322-C321)^2+(D322- D321)^2)^.5</f>
       </c>
-      <c r="J322" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K322" s="2" t="s">
+      <c r="J322" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K322" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L322" t="n">
@@ -9470,28 +9494,28 @@
       </c>
     </row>
     <row r="324">
-      <c r="A324" t="s" s="2">
+      <c r="A324" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B324" t="s" s="2">
+      <c r="B324" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C324" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D324" t="s" s="2">
+      <c r="C324" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D324" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E324" t="s" s="2">
+      <c r="E324" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F324" t="s" s="2">
+      <c r="F324" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G324" t="s" s="2">
+      <c r="G324" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H324" t="s" s="2">
+      <c r="H324" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -9516,28 +9540,28 @@
       </c>
     </row>
     <row r="326">
-      <c r="B326" t="s" s="2">
+      <c r="B326" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C326" t="s" s="2">
+      <c r="C326" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D326" t="s" s="2">
+      <c r="D326" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E326" t="s" s="2">
+      <c r="E326" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F326" t="s" s="2">
+      <c r="F326" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G326" t="s" s="2">
+      <c r="G326" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H326" t="s" s="2">
+      <c r="H326" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I326" t="s" s="2">
+      <c r="I326" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -9625,10 +9649,10 @@
       <c r="I329">
         <f>((C329-C328)^2+(D329- D328)^2)^.5</f>
       </c>
-      <c r="J329" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K329" s="2" t="s">
+      <c r="J329" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K329" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L329" t="n">
@@ -9672,28 +9696,28 @@
       </c>
     </row>
     <row r="331">
-      <c r="A331" t="s" s="2">
+      <c r="A331" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B331" t="s" s="2">
+      <c r="B331" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C331" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D331" t="s" s="2">
+      <c r="C331" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D331" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E331" t="s" s="2">
+      <c r="E331" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F331" t="s" s="2">
+      <c r="F331" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G331" t="s" s="2">
+      <c r="G331" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H331" t="s" s="2">
+      <c r="H331" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -9718,28 +9742,28 @@
       </c>
     </row>
     <row r="333">
-      <c r="B333" t="s" s="2">
+      <c r="B333" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C333" t="s" s="2">
+      <c r="C333" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D333" t="s" s="2">
+      <c r="D333" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E333" t="s" s="2">
+      <c r="E333" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F333" t="s" s="2">
+      <c r="F333" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G333" t="s" s="2">
+      <c r="G333" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H333" t="s" s="2">
+      <c r="H333" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I333" t="s" s="2">
+      <c r="I333" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -9827,10 +9851,10 @@
       <c r="I336">
         <f>((C336-C335)^2+(D336- D335)^2)^.5</f>
       </c>
-      <c r="J336" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K336" s="2" t="s">
+      <c r="J336" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K336" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L336" t="n">
